--- a/materials/material_list.xlsx
+++ b/materials/material_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
@@ -152,14 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>74AC04 DIP Hexインバータ (option)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>74AC08 DIP クワッド2入力AND (option)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブレッドボード・ジャンパーコード（オス－オス）セット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,48 +179,35 @@
     <t>Ｎ－１２５ＷＧ</t>
   </si>
   <si>
-    <t>*共通可</t>
-    <rPh sb="1" eb="3">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*共通可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1袋60本以上 ¥220
-*共通可</t>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1シート10個 ¥100
-*共通可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1袋4個 ¥100
-*共通可</t>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1袋100本 ¥100
-*共通可</t>
-    <rPh sb="2" eb="3">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ポン</t>
+    <t>74AC04 DIP Hexインバータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>74AC08 DIP クワッド2入力AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*ロジックIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*ロジックIC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション部品</t>
+    <rPh sb="5" eb="7">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本部品</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,6 +215,41 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <rPh sb="0" eb="2">
+      <t>コウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1袋60本以上 ¥220</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1シート10個 ¥100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1袋4個 ¥100</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1袋100本 ¥100</t>
+    <rPh sb="2" eb="3">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ポン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -244,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +297,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,12 +314,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -306,29 +343,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,362 +678,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>220</v>
+      </c>
+      <c r="E3" s="2">
+        <f>$C3*$D3</f>
+        <v>220</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <f>$C4*$D4</f>
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f>$C5*$D5</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <f>$C6*$D6</f>
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <f>$C7*$D7</f>
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2">
+        <f>$C8*$D8</f>
+        <v>200</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>$C9*$D9</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>305</v>
+      </c>
+      <c r="E10" s="2">
+        <f>$C10*$D10</f>
+        <v>305</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D11" s="3">
         <v>1944</v>
       </c>
-      <c r="E2">
-        <f>$C2*$D2</f>
+      <c r="E11" s="2">
+        <f>$C11*$D11</f>
         <v>1944</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <f>SUM($E3:$E11)</f>
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">$C3*$D3</f>
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2">
+        <f>$C16*$D16</f>
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2">
+        <f>$C17*$D17</f>
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <f>SUM($H12,$E16:$E17)</f>
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
+      <c r="D22" s="2">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2">
+        <f>$C22*$D22</f>
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>305</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D23" s="2">
+        <v>2268</v>
+      </c>
+      <c r="E23" s="2">
+        <f>$C23*$D23</f>
+        <v>2268</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>220</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D24" s="2">
+        <v>672</v>
+      </c>
+      <c r="E24" s="2">
+        <f>$C24*$D24</f>
+        <v>672</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2268</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>2268</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>672</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17">
-        <f>SUM($E2:$E15)</f>
-        <v>6092</v>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <f>SUM($H18,$E22:$E24)</f>
+        <v>6219</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
